--- a/biology/Virologie/3000_Scénarios_contre_un_virus/3000_Scénarios_contre_un_virus.xlsx
+++ b/biology/Virologie/3000_Scénarios_contre_un_virus/3000_Scénarios_contre_un_virus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3000_Sc%C3%A9narios_contre_un_virus</t>
+          <t>3000_Scénarios_contre_un_virus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">3000 scénarios contre un virus est une opération de prévention du SIDA menée en France en 1993. Sur plus de quatre mille scénarios proposés par des lycéens pour des courts métrages de cinéma, trente-et-un ont été réalisés par des réalisateurs pour la plupart bénévoles, et tournés avec la participation gracieuse de la plupart des acteurs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3000_Sc%C3%A9narios_contre_un_virus</t>
+          <t>3000_Scénarios_contre_un_virus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Réalisateurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean Achache (segment Les Deux Amants)
 Philippe Bérenger (segment La Seringue)
@@ -552,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3000_Sc%C3%A9narios_contre_un_virus</t>
+          <t>3000_Scénarios_contre_un_virus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,140 +586,1165 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L'Anniversaire de Patrick Volson
-Sur une idée originale de Deniz Pelit, Cristine Rebelo et Céline Le Merrer (tous âgés de 15 ans)
+          <t>L'Anniversaire de Patrick Volson</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Deniz Pelit, Cristine Rebelo et Céline Le Merrer (tous âgés de 15 ans)
 Julie fête son anniversaire et décide d'annoncer à ses amis sa séropositivité
 Durée : 3 min
-Avec Élodie Bouchez (Julie), Bernadette Le Saché, Andrée Guérin, Françoise Michaud, Pierre Aussedat, Pierre Honoré et Geoffroy Thiebaut.
-Mère séropositive de Benoît Jacquot
-Sur une idée originale de Alexandra Huard (17 ans) et Yves Rosati (21 ans)
+Avec Élodie Bouchez (Julie), Bernadette Le Saché, Andrée Guérin, Françoise Michaud, Pierre Aussedat, Pierre Honoré et Geoffroy Thiebaut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mère séropositive de Benoît Jacquot</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Alexandra Huard (17 ans) et Yves Rosati (21 ans)
 Durée : 6 min
-Avec Agathe Bonitzer, Nathalie Boutefeu et Marianne Denicourt.
-L'Exclusion  de Paul Boujenah
-Sur une idée originale de Matthieu Henry (20 ans) et Julio Niéda (20 ans)
+Avec Agathe Bonitzer, Nathalie Boutefeu et Marianne Denicourt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'Exclusion  de Paul Boujenah</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Matthieu Henry (20 ans) et Julio Niéda (20 ans)
 Durée : 2 min 33 s
-avec Nathalie Roussel, Valérie Bachelier, Sophie Boudre
-L'Appel d'un ami de Jean Marbœuf
-Sur une idée originale de Sylvianne Méraut (20 ans)
+avec Nathalie Roussel, Valérie Bachelier, Sophie Boudre</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'Appel d'un ami de Jean Marbœuf</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Sylvianne Méraut (20 ans)
 Durée : 3 min 51 s
-Avec François Cluzet, Michel Duchaussoy, François Aragon, Violetta Ferrer et Julie Marbœuf
-Mort d'un couple de Laurent Heynemann
-Sur une idée originale de Virginie Deschartes (18 ans)
+Avec François Cluzet, Michel Duchaussoy, François Aragon, Violetta Ferrer et Julie Marbœuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mort d'un couple de Laurent Heynemann</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Virginie Deschartes (18 ans)
 Durée : 3 min
-Avec Léa Gabriel et François Levantal
-La Sirène de Philippe Lioret
-Sur une idée originale de Mathias Gokalp (20 ans)
+Avec Léa Gabriel et François Levantal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La Sirène de Philippe Lioret</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Mathias Gokalp (20 ans)
 Un Couple de personnes âgées met au point un stratagème pour acheter des préservatifs dans une pharmacie
 Durée : 4 min
-Avec Patachou, Daniel Gélin et Mathieu Kassovitz.
-Zozo, le clown de Charlotte Silvera
-Sur une idée originale de Blandine Assemat (20 ans)
+Avec Patachou, Daniel Gélin et Mathieu Kassovitz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Zozo, le clown de Charlotte Silvera</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Blandine Assemat (20 ans)
 Durée : 5 min
-Avec Marc Ségala, Brice Porquet, Julie Turin
-Le Temps du bonheur de Caroline Champetier
-Sur une idée originale de Fabian Le Delliou (11 ans)
+Avec Marc Ségala, Brice Porquet, Julie Turin</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Le Temps du bonheur de Caroline Champetier</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Fabian Le Delliou (11 ans)
 Durée : 3 min 24 s
-Avec Amira Casar, Patrick Armerding, Damien Bustaus
-Le Rap du sida de Michel Meyer
-Sur une idée originale de Odile Tzerovsky (18 ans)
-Chanson de 3 min 25 s
-Le SIDA c'est les autres de Ivana Massetti
-Sur une idée originale de Sandra Deruere (19 ans)
+Avec Amira Casar, Patrick Armerding, Damien Bustaus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Le Rap du sida de Michel Meyer</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Odile Tzerovsky (18 ans)
+Chanson de 3 min 25 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Le SIDA c'est les autres de Ivana Massetti</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Sandra Deruere (19 ans)
 Un jeune homme annonce à ses parents le résultat de son test VIH.
 Durée : 3 min 22 s
-Avec Didier Sandre, Clément Sibony
-Arnaud et ses copains de Jacques Deray
-Sur une idée originale de Emmanuel Blas (17 ans)
+Avec Didier Sandre, Clément Sibony</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Arnaud et ses copains de Jacques Deray</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Emmanuel Blas (17 ans)
 Des lycéens assistent à l'enterrement d'un de leur camarade. Ils se rappellent...
-Durée : 4 min 15 s
-Le Rêve de Bernard Verley
-Sur une idée originale de Cécile Moulys
-Avec Hélène Sevaux, Fabrice Allard, Patrick Dattas
-Vertige de l'amour de Laetitia Masson
-Sur une idée originale de Laetitia Carton (19 ans) de Cusset (Allier).
+Durée : 4 min 15 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Le Rêve de Bernard Verley</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Cécile Moulys
+Avec Hélène Sevaux, Fabrice Allard, Patrick Dattas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vertige de l'amour de Laetitia Masson</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Laetitia Carton (19 ans) de Cusset (Allier).
 Après un coup de foudre, une jeune femme n'ose proposer le préservatif à son partenaire.
 Durée : 5 min
-Avec la participation de Estelle Perron et Christophe Loir.
-Le Flic de Xavier Durringer
-Sur une idée originale de Alexandre Pindao
+Avec la participation de Estelle Perron et Christophe Loir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Le Flic de Xavier Durringer</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Alexandre Pindao
 Durée :3 min
-Avec Edouard Montoute et Laurent Olmedo
-La Teuf d'enfer de Patrice Cazès
-Sur une idée originale de Luc Milhe (20 ans) de Strasbourg (Bas-Rhin)
+Avec Edouard Montoute et Laurent Olmedo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>La Teuf d'enfer de Patrice Cazès</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Luc Milhe (20 ans) de Strasbourg (Bas-Rhin)
 Deux couples jouent au jeu de la séduction.
 Durée : 3 min 20 s
-Avec Vincent Cassel, Marine Delterme, Thierry de Peretti, Julie Gayet.
-Discussion sur le préservatif entre un père et son fils de Jean-Daniel Pillault
-Sur une idée originale de Félicie Dutertre (18 ans), François Rabes (18 ans) de Paris
+Avec Vincent Cassel, Marine Delterme, Thierry de Peretti, Julie Gayet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Discussion sur le préservatif entre un père et son fils de Jean-Daniel Pillault</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Félicie Dutertre (18 ans), François Rabes (18 ans) de Paris
 Durée : 3 min
-Avec Julien Féret, René Féret, Sophie Mounicot
-Les Deux Amants de Jean Achache
-Sur une idée originale de Cyrille Wolff (19 ans)
+Avec Julien Féret, René Féret, Sophie Mounicot</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Les Deux Amants de Jean Achache</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Cyrille Wolff (19 ans)
 Un jeune homme observe son ancien petit ami qui est en train d'embrasser une fille.
 Durée : 4 min 13 s
-avec Jean-Michel Portal, Patrick Mille et Christine Chanssou
-La Seringue de Philippe Bérenger
-Sur une idée originale de Stéphane Forel (19 ans)
+avec Jean-Michel Portal, Patrick Mille et Christine Chanssou</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>La Seringue de Philippe Bérenger</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Stéphane Forel (19 ans)
 Deux jeunes toxicomanes se préparent un shoot. L'un d'eux refuse la présence de sa petite amie sous le prétexte qu'elle n'a pas de seringue propre.
 Durée : 4 min
-Avec François Caron, Hélène Fillières et Olivier Sitruk
-Préservatif, une preuve d'amour de Richard Berry
-Sur une idée originale de François Brutails (20 ans)
+Avec François Caron, Hélène Fillières et Olivier Sitruk</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Préservatif, une preuve d'amour de Richard Berry</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de François Brutails (20 ans)
 Durée : 3 min
-Avec Jessica Forde et Jean-Michel Tinivelli
-Bavardages en SIDA mineur de Virginie Thévenet
-Sur une idée originale de Cécile Abelard (19 ans)
+Avec Jessica Forde et Jean-Michel Tinivelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bavardages en SIDA mineur de Virginie Thévenet</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Cécile Abelard (19 ans)
 Une femme qui croit son mari infidèle, s'interroge son laxisme face à la prévention.
 Durée : 4 min 34 s
-Avec Chiara Mastroianni, Melvil Poupaud et Babette Rozes.
-Avant… mais après de Tonie Marshall
-Sur une idée originale de Marc Milani (18 ans) de Joué-lès-Tours (Indre-et-Loire)
+Avec Chiara Mastroianni, Melvil Poupaud et Babette Rozes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Avant… mais après de Tonie Marshall</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Marc Milani (18 ans) de Joué-lès-Tours (Indre-et-Loire)
 Un lycéen prête une capote à un copain car ce dernier a un rendez-vous avec une fille le soir même. Le lendemain, il lui dit qu'il ne l'a pas utilisée car il avait confiance.
 Durée : 4 min 50 s
-Avec Mathieu Kassovitz, Quentin Ogier, Ludivine Tribes
-Affreux, bêtes et très méchants de Jacky Cukier
-Sur une idée originale de Adrien Menard (18 ans) de Saint-Germain-en-Laye (Yvelines)
+Avec Mathieu Kassovitz, Quentin Ogier, Ludivine Tribes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Affreux, bêtes et très méchants de Jacky Cukier</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Adrien Menard (18 ans) de Saint-Germain-en-Laye (Yvelines)
 Une jeune fille essaie d'annoncer à sa mère qu'elle est séropositive.
 Durée : 4 min 10 s
-Avec Anémone, Michel Boujenah, Elisa Tovati, Vanessa Guedj
-L'Attente de Daniel Vigne
-Sur une idée originale de Sabine Frey (16 ans) de Lannion (Côtes-d'Armor)
+Avec Anémone, Michel Boujenah, Elisa Tovati, Vanessa Guedj</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>L'Attente de Daniel Vigne</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Sabine Frey (16 ans) de Lannion (Côtes-d'Armor)
 Une femme attend les résultats de son test VIH et s'inquiète sur ses relations antérieures.
 Durée : 3 min 55 s
-Avec Étienne Chicot, Mathilde Seigner
-Je t'aime moi non plus de Jane Birkin
-Sur une idée originale de Emilie Busini (18 ans) de Estaires (Nord)
+Avec Étienne Chicot, Mathilde Seigner</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Je t'aime moi non plus de Jane Birkin</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Emilie Busini (18 ans) de Estaires (Nord)
 Sur fond musical de la chanson de Serge Gainsbourg - Je t'aime moi non plus - deux jeunes se caressent ; le garçon met un préservatif...
 Durée : 2 min 10 s
-Avec Lola Doillon et Mathieu Demy.
-Déshabille-toi que je t'habille de Florence Strauss
-Sur une idée originale de Ludovic Genty (20 ans) de Mennecy (Essonne)
+Avec Lola Doillon et Mathieu Demy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Déshabille-toi que je t'habille de Florence Strauss</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Ludovic Genty (20 ans) de Mennecy (Essonne)
 Durée : 3 min
-Avec Marie Guillard, Adrien de Van
-Sidapolis de Sébastien Grall
-Sur une idée originale de Réjane Hamus (19 ans) à Château-Thierry (Aisne)
+Avec Marie Guillard, Adrien de Van</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sidapolis de Sébastien Grall</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Réjane Hamus (19 ans) à Château-Thierry (Aisne)
 En 2080, un professeur explique à sa classe de collégiens comment, grâce aux changements de mentalités et aux progrès des chercheurs, on a réussi à vaincre le SIDA.
 Durée : 3 min
-Avec Jérôme Bonaldi
-I Love You de Fernand Moszkowicz
-Sur une idée originale de Alice Guien (20 ans) de Toulouse (Haute-Garonne)
+Avec Jérôme Bonaldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I Love You de Fernand Moszkowicz</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Alice Guien (20 ans) de Toulouse (Haute-Garonne)
 Durée : 2 min 50 s
-Avec Emmanuelle Laborit, Nils Tavernier, Martin Saint-Pierre
-Poisson rouge de Cédric Klapisch
-Sur une idée originale de Jérôme Bettochi (19 ans) de Bessoncourt (Territoire de Belfort)
+Avec Emmanuelle Laborit, Nils Tavernier, Martin Saint-Pierre</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Poisson rouge de Cédric Klapisch</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Jérôme Bettochi (19 ans) de Bessoncourt (Territoire de Belfort)
 Le pauvre Kiki se fait renverser et finit à la pharmacie.
 Durée : 3 min
 Avec Valeria Bruni Tedeschi, François Berléand (un pharmacien), Hiam Abbass, Simon Abkarian, Martine Audrain, Marcelle Dupuis, Zinedine Soualem, Nathalie Krebs.
-Musique: Pierre et le loup, Serge Prokofiev - No alohah, The Breeders
-La Pharmacie de Gérard Jugnot
-Sur une idée originale de Nicolas Martin (16 ans) de Saint-Dizier (Haute-Marne)
+Musique: Pierre et le loup, Serge Prokofiev - No alohah, The Breeders</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>La Pharmacie de Gérard Jugnot</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Nicolas Martin (16 ans) de Saint-Dizier (Haute-Marne)
 Un jeune homme rentre dans une pharmacie acheter des préservatifs. Le soir, il va chercher sa petite amie pour aller au cinéma, elle lui présente son père qui n'est autre que...
 Durée : 1 min 30 s
-Avec Martin Lamotte, Adèle Jacques, Nicolas Devanne
-La Chambre de Cédric Klapisch
-Durée : 2 min 27 s
-Chambres de Jacques Renard
-Sur une idée originale de Nolwenn Mignoton</t>
+Avec Martin Lamotte, Adèle Jacques, Nicolas Devanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>La Chambre de Cédric Klapisch</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Durée : 2 min 27 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3000_Scénarios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3000_Sc%C3%A9narios_contre_un_virus</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Fiches techniques</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Chambres de Jacques Renard</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sur une idée originale de Nolwenn Mignoton</t>
         </is>
       </c>
     </row>
